--- a/Glacial_succession_survey/Plant_survey_DATA.xlsx
+++ b/Glacial_succession_survey/Plant_survey_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ciaranorton/Documents/GitHub/Garibaldi/Glacial_succession_survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A806977D-7851-554B-8B5C-AE4F989EA631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C767D542-46D8-9D47-BE22-EB978C0867B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14980" yWindow="0" windowWidth="13820" windowHeight="18000" activeTab="6" xr2:uid="{3D69C17B-FDC4-8D40-89DF-0D2A2855427F}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6232" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6243" uniqueCount="846">
   <si>
     <t>Date:</t>
   </si>
@@ -1191,36 +1191,18 @@
     <t>122°58.922</t>
   </si>
   <si>
-    <t>fringed grass parnassues</t>
-  </si>
-  <si>
     <t xml:space="preserve">2m </t>
   </si>
   <si>
-    <t>epilobium anagalladifolium</t>
-  </si>
-  <si>
     <t>saxifraga odo</t>
   </si>
   <si>
-    <t>agoseris aur</t>
-  </si>
-  <si>
-    <t>gaultherua mumifusa</t>
-  </si>
-  <si>
-    <t>fern spp1 (green spleenwury)</t>
-  </si>
-  <si>
     <t>sticky leaf aster</t>
   </si>
   <si>
     <t>white bog orchid</t>
   </si>
   <si>
-    <t>castellia (pink red white?)</t>
-  </si>
-  <si>
     <t>Juncus spp1</t>
   </si>
   <si>
@@ -1236,12 +1218,6 @@
     <t>Poa spp1</t>
   </si>
   <si>
-    <t>Juncus drummondii</t>
-  </si>
-  <si>
-    <t>Epilobium latifolium</t>
-  </si>
-  <si>
     <t>Dryas</t>
   </si>
   <si>
@@ -1269,9 +1245,6 @@
     <t>Sagina Sagina</t>
   </si>
   <si>
-    <t>Abies Anagallad</t>
-  </si>
-  <si>
     <t>Lazula spp1</t>
   </si>
   <si>
@@ -1299,12 +1272,6 @@
     <t>silene acaulis</t>
   </si>
   <si>
-    <t xml:space="preserve">0, 1, 0, 0 </t>
-  </si>
-  <si>
-    <t>1, 3, 0, 0</t>
-  </si>
-  <si>
     <t>kalmia</t>
   </si>
   <si>
@@ -1330,9 +1297,6 @@
   </si>
   <si>
     <t>4, 0, 0, 4</t>
-  </si>
-  <si>
-    <t>0, 1, 3, 0</t>
   </si>
   <si>
     <t>WP20</t>
@@ -2608,6 +2572,36 @@
   </si>
   <si>
     <t>Platathera</t>
+  </si>
+  <si>
+    <t>fringed grass of Parnassus</t>
+  </si>
+  <si>
+    <t>epilobium</t>
+  </si>
+  <si>
+    <t>Alpine wintergreen</t>
+  </si>
+  <si>
+    <t>reen spleenwury</t>
+  </si>
+  <si>
+    <t>fern</t>
+  </si>
+  <si>
+    <t>Platanthera</t>
+  </si>
+  <si>
+    <t>castilleja (pink red white?)</t>
+  </si>
+  <si>
+    <t>Drummond's rush</t>
+  </si>
+  <si>
+    <t>?? Dwarf fireweed repeat?</t>
+  </si>
+  <si>
+    <t>** this is a double??</t>
   </si>
 </sst>
 </file>
@@ -4588,13 +4582,13 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>196</v>
@@ -4626,13 +4620,13 @@
         <v>123</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>198</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>199</v>
@@ -4703,13 +4697,13 @@
         <v>123</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>337</v>
       </c>
       <c r="E69" s="51" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5" t="s">
@@ -4739,7 +4733,7 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D71" s="19" t="s">
         <v>52</v>
@@ -4759,10 +4753,10 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16" t="s">
@@ -4775,13 +4769,13 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="E73" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
@@ -4972,7 +4966,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -5017,10 +5011,10 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="36"/>
@@ -5034,10 +5028,10 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="H6" s="45"/>
       <c r="I6" s="36"/>
@@ -5085,10 +5079,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
@@ -5244,7 +5238,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
@@ -5641,7 +5635,7 @@
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="H34" s="24"/>
       <c r="I34" s="26"/>
@@ -5664,7 +5658,7 @@
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="18"/>
@@ -5687,7 +5681,7 @@
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="H36" s="5"/>
       <c r="I36" s="20"/>
@@ -5710,7 +5704,7 @@
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="18"/>
@@ -5774,7 +5768,7 @@
         <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>217</v>
@@ -5907,7 +5901,7 @@
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="18"/>
@@ -5932,7 +5926,7 @@
         <v>196</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="20"/>
@@ -6001,7 +5995,7 @@
         <v>308</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="18"/>
@@ -6023,7 +6017,7 @@
         <v>148</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>308</v>
@@ -6048,7 +6042,7 @@
         <v>152</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>229</v>
@@ -6231,7 +6225,7 @@
       </c>
       <c r="F60" s="16"/>
       <c r="G60" s="16" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="18"/>
@@ -6286,7 +6280,7 @@
         <v>270</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="20"/>
@@ -6309,10 +6303,10 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="19" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>212</v>
@@ -6329,13 +6323,13 @@
         <v>337</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="F66" s="16" t="s">
         <v>215</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="H66" s="16"/>
       <c r="I66" s="18"/>
@@ -6345,10 +6339,10 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>212</v>
@@ -6381,10 +6375,10 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="19" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>196</v>
@@ -6398,7 +6392,7 @@
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>288</v>
@@ -6432,10 +6426,10 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F72" s="16" t="s">
         <v>211</v>
@@ -6452,7 +6446,7 @@
         <v>132</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>223</v>
@@ -6469,7 +6463,7 @@
         <v>281</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="F74" s="16" t="s">
         <v>223</v>
@@ -6483,10 +6477,10 @@
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="19" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>308</v>
@@ -6500,7 +6494,7 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="17" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>49</v>
@@ -6517,10 +6511,10 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="19" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>308</v>
@@ -6534,10 +6528,10 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="19" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="F78" s="16" t="s">
         <v>211</v>
@@ -6554,7 +6548,7 @@
         <v>330</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>211</v>
@@ -6568,10 +6562,10 @@
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
       <c r="D80" s="17" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F80" s="16" t="s">
         <v>211</v>
@@ -6585,13 +6579,13 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="19" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
@@ -6602,13 +6596,13 @@
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="17" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="E82" s="17" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
@@ -6619,10 +6613,10 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="19" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="F83" s="5" t="s">
         <v>270</v>
@@ -6639,10 +6633,10 @@
         <v>330</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F84" s="16" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
@@ -6653,13 +6647,13 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="19" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
@@ -6673,10 +6667,10 @@
         <v>354</v>
       </c>
       <c r="E86" s="17" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
@@ -6687,13 +6681,13 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="19" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
@@ -6707,10 +6701,10 @@
         <v>328</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F88" s="16" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
@@ -6724,10 +6718,10 @@
         <v>93</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
@@ -6738,13 +6732,13 @@
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="19" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="E90" s="59" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
@@ -6755,10 +6749,10 @@
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
       <c r="D91" s="17" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="E91" s="17" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="F91" s="16" t="s">
         <v>273</v>
@@ -6771,10 +6765,10 @@
       <c r="A92" s="5"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
       <c r="D92" s="19" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="5" t="s">
@@ -6788,10 +6782,10 @@
       <c r="A93" s="16"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="16" t="s">
@@ -6806,10 +6800,10 @@
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="19" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="F94" s="5" t="s">
         <v>211</v>
@@ -6826,7 +6820,7 @@
         <v>328</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="F95" s="16" t="s">
         <v>223</v>
@@ -6843,7 +6837,7 @@
         <v>281</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F96" s="5" t="s">
         <v>308</v>
@@ -6860,7 +6854,7 @@
         <v>125</v>
       </c>
       <c r="E97" s="17" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="F97" s="16" t="s">
         <v>308</v>
@@ -6874,10 +6868,10 @@
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="19" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="F98" s="5" t="s">
         <v>298</v>
@@ -6891,7 +6885,7 @@
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
       <c r="D99" s="17" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="E99" s="17"/>
       <c r="F99" s="16" t="s">
@@ -6909,10 +6903,10 @@
         <v>338</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
@@ -6923,10 +6917,10 @@
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
       <c r="D101" s="17" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="F101" s="16" t="s">
         <v>229</v>
@@ -6943,7 +6937,7 @@
         <v>176</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>229</v>
@@ -6957,10 +6951,10 @@
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
       <c r="D103" s="17" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E103" s="17" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="F103" s="16" t="s">
         <v>229</v>
@@ -7118,7 +7112,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -7163,7 +7157,7 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="G5" s="46"/>
       <c r="H5" s="45"/>
@@ -7178,7 +7172,7 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="G6" s="46"/>
       <c r="H6" s="45"/>
@@ -7192,7 +7186,7 @@
       <c r="C7" s="8"/>
       <c r="D7" s="35"/>
       <c r="E7" s="43" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F7" s="44"/>
       <c r="G7" s="45"/>
@@ -7229,7 +7223,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
@@ -7955,7 +7949,7 @@
         <v>126</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -8043,7 +8037,7 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -8089,7 +8083,7 @@
         <v>141</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -8156,7 +8150,7 @@
         <v>152</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
@@ -8286,7 +8280,7 @@
         <v>173</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
@@ -8309,7 +8303,7 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -8379,7 +8373,7 @@
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="16" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -8409,11 +8403,11 @@
         <v>209</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="16" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -8423,14 +8417,14 @@
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="16" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -8444,7 +8438,7 @@
         <v>354</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="F67" s="5">
         <v>1</v>
@@ -8457,10 +8451,10 @@
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="E68" s="17"/>
       <c r="F68" s="16" t="s">
@@ -8474,10 +8468,10 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E69" s="19"/>
       <c r="F69" s="16" t="s">
@@ -8506,7 +8500,7 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
@@ -8521,7 +8515,7 @@
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
@@ -8536,7 +8530,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
@@ -8552,10 +8546,10 @@
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="17" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="F74" s="16" t="s">
         <v>213</v>
@@ -8568,7 +8562,7 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
@@ -8584,10 +8578,10 @@
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
       <c r="D76" s="16" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F76" s="16" t="s">
         <v>199</v>
@@ -8601,11 +8595,11 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="19" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="E77" s="19"/>
       <c r="F77" s="5" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
@@ -8616,11 +8610,11 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="17" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E78" s="17"/>
       <c r="F78" s="16" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
@@ -8635,7 +8629,7 @@
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="5" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="G79" s="5"/>
       <c r="H79" s="16"/>
@@ -8757,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -8802,10 +8796,10 @@
       <c r="D5" s="35"/>
       <c r="E5" s="43"/>
       <c r="F5" s="46" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="G5" s="46" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="36"/>
@@ -8819,10 +8813,10 @@
       <c r="D6" s="35"/>
       <c r="E6" s="43"/>
       <c r="F6" s="46" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="G6" s="46" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="H6" s="45"/>
       <c r="I6" s="36"/>
@@ -8870,10 +8864,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
@@ -9537,7 +9531,7 @@
         <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -9602,7 +9596,7 @@
         <v>126</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="G43" s="24"/>
       <c r="H43" s="24"/>
@@ -9845,7 +9839,7 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -9910,7 +9904,7 @@
         <v>170</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -9957,7 +9951,7 @@
         <v>212</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="20"/>
@@ -10021,7 +10015,7 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
@@ -10036,12 +10030,12 @@
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="16" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -10054,10 +10048,10 @@
         <v>340</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -10070,13 +10064,13 @@
         <v>209</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -10087,13 +10081,13 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="F67" s="16" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -10101,16 +10095,16 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17"/>
       <c r="E68" s="17" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="G68" s="16" t="s">
         <v>219</v>
@@ -10120,13 +10114,13 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="19"/>
       <c r="E69" s="19" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>219</v>
@@ -10137,16 +10131,16 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="16" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
       <c r="D70" s="17"/>
       <c r="E70" s="17" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
@@ -10156,7 +10150,7 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
@@ -10172,10 +10166,10 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>215</v>
@@ -10188,12 +10182,12 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
       <c r="F73" s="16" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -10203,7 +10197,7 @@
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
@@ -10235,13 +10229,13 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="F76" s="16" t="s">
         <v>227</v>
@@ -10254,7 +10248,7 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
@@ -10269,11 +10263,11 @@
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="F78" s="16" t="s">
         <v>227</v>
@@ -10286,7 +10280,7 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
@@ -10301,12 +10295,12 @@
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
       <c r="F80" s="16" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="G80" s="16"/>
       <c r="H80" s="47"/>
@@ -10331,7 +10325,7 @@
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
@@ -10346,7 +10340,7 @@
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="19"/>
@@ -10361,47 +10355,47 @@
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
       <c r="F84" s="16"/>
       <c r="G84" s="16" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="H84" s="16"/>
       <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="17"/>
       <c r="E86" s="17" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="F86" s="16"/>
       <c r="G86" s="16" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="H86" s="16"/>
       <c r="I86" s="18"/>
@@ -10410,7 +10404,7 @@
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -10537,7 +10531,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -10650,10 +10644,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
@@ -10675,7 +10669,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>213</v>
@@ -11266,7 +11260,7 @@
         <v>104</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
@@ -11491,7 +11485,7 @@
         <v>223</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="20"/>
@@ -11775,7 +11769,7 @@
         <v>181</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="G60" s="16" t="s">
         <v>256</v>
@@ -11816,7 +11810,7 @@
         <v>270</v>
       </c>
       <c r="G62" s="16" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="18"/>
@@ -11826,10 +11820,10 @@
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>211</v>
@@ -11846,10 +11840,10 @@
         <v>281</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="F64" s="16" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -11863,11 +11857,11 @@
         <v>281</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="F65" s="5"/>
       <c r="G65" s="5" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="H65" s="5"/>
       <c r="I65" s="20"/>
@@ -11877,10 +11871,10 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="F66" s="16"/>
       <c r="G66" s="16" t="s">
@@ -11894,10 +11888,10 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5" t="s">
@@ -11911,10 +11905,10 @@
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F68" s="16"/>
       <c r="G68" s="16" t="s">
@@ -11925,11 +11919,11 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
@@ -12166,7 +12160,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -12253,16 +12247,16 @@
       <c r="D7" s="35"/>
       <c r="E7" s="43"/>
       <c r="F7" s="44" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="G7" s="45" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>675</v>
+        <v>663</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -12295,16 +12289,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
+        <v>635</v>
+      </c>
+      <c r="G9" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>659</v>
-      </c>
       <c r="H9" s="14" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -12330,7 +12324,7 @@
         <v>266</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>217</v>
@@ -12418,16 +12412,16 @@
         <v>31</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>197</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -12587,16 +12581,16 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>291</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -12707,7 +12701,7 @@
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>215</v>
@@ -12827,7 +12821,7 @@
         <v>84</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>226</v>
@@ -12836,7 +12830,7 @@
         <v>230</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -13032,7 +13026,7 @@
         <v>114</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5" t="s">
@@ -13127,7 +13121,7 @@
         <v>215</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -13147,7 +13141,7 @@
         <v>130</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5" t="s">
@@ -13190,10 +13184,10 @@
         <v>136</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5" t="s">
@@ -13249,10 +13243,10 @@
         <v>211</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -13299,7 +13293,7 @@
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="I51" s="20"/>
     </row>
@@ -13322,7 +13316,7 @@
       <c r="F52" s="16"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="I52" s="18" t="s">
         <v>320</v>
@@ -13478,7 +13472,7 @@
         <v>215</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -13534,7 +13528,7 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>270</v>
@@ -13555,7 +13549,7 @@
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="5" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>270</v>
@@ -13564,7 +13558,7 @@
         <v>232</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -13572,10 +13566,10 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F64" s="16" t="s">
         <v>219</v>
@@ -13591,13 +13585,13 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="19" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
@@ -13613,7 +13607,7 @@
         <v>97</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="F66" s="16" t="s">
         <v>215</v>
@@ -13623,7 +13617,7 @@
         <v>218</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -13653,7 +13647,7 @@
         <v>93</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>256</v>
@@ -13670,7 +13664,7 @@
         <v>328</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>256</v>
@@ -13692,16 +13686,16 @@
         <v>288</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="G70" s="16" t="s">
         <v>212</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -13719,7 +13713,7 @@
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
       <c r="I71" s="20" t="s">
         <v>240</v>
@@ -13733,10 +13727,10 @@
         <v>337</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="G72" s="16"/>
       <c r="H72" s="16" t="s">
@@ -13754,7 +13748,7 @@
         <v>86</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5" t="s">
@@ -13768,10 +13762,10 @@
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
       <c r="D74" s="17" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16" t="s">
@@ -13788,7 +13782,7 @@
         <v>93</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
@@ -13803,7 +13797,7 @@
       <c r="C76" s="16"/>
       <c r="D76" s="17"/>
       <c r="E76" s="17" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16" t="s">
@@ -13822,7 +13816,7 @@
         <v>361</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
@@ -13836,14 +13830,14 @@
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
       <c r="D78" s="19" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="H78" s="16"/>
       <c r="I78" s="18"/>
@@ -13856,11 +13850,11 @@
         <v>281</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="20"/>
@@ -13873,11 +13867,11 @@
         <v>117</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="H80" s="47"/>
       <c r="I80" s="18"/>
@@ -13887,10 +13881,10 @@
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
       <c r="D81" s="17" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5" t="s">
@@ -13903,7 +13897,7 @@
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
       <c r="D82" s="19" t="s">
         <v>86</v>
@@ -13924,7 +13918,7 @@
         <v>132</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="5" t="s">
@@ -13941,7 +13935,7 @@
         <v>176</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
@@ -13955,10 +13949,10 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="19" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5"/>
@@ -13980,7 +13974,7 @@
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="5" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="I86" s="18"/>
     </row>
@@ -13989,10 +13983,10 @@
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
       <c r="D87" s="62" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
@@ -14006,10 +14000,10 @@
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="17" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
@@ -14026,7 +14020,7 @@
         <v>328</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="F89" s="5"/>
       <c r="G89" s="5"/>
@@ -14236,16 +14230,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -14268,7 +14262,7 @@
         <v>215</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="18"/>
@@ -14359,7 +14353,7 @@
         <v>219</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="I14" s="18"/>
     </row>
@@ -14510,7 +14504,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>219</v>
@@ -14630,7 +14624,7 @@
         <v>256</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="20"/>
@@ -14805,16 +14799,16 @@
         <v>94</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="H34" s="24" t="s">
         <v>196</v>
       </c>
       <c r="I34" s="26" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -14834,10 +14828,10 @@
         <v>98</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
       <c r="H35" s="16"/>
       <c r="I35" s="18"/>
@@ -14862,7 +14856,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
       <c r="I36" s="20" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -14882,7 +14876,7 @@
         <v>104</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
@@ -14950,7 +14944,7 @@
         <v>223</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="H40" s="5"/>
       <c r="I40" s="20"/>
@@ -15038,7 +15032,7 @@
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="H44" s="16"/>
       <c r="I44" s="18"/>
@@ -15172,11 +15166,11 @@
         <v>270</v>
       </c>
       <c r="G50" s="16" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="H50" s="16"/>
       <c r="I50" s="18" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -15222,7 +15216,7 @@
         <v>223</v>
       </c>
       <c r="G52" s="16" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="18"/>
@@ -15335,7 +15329,7 @@
       </c>
       <c r="F57" s="5"/>
       <c r="G57" s="5" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>196</v>
@@ -15380,7 +15374,7 @@
         <v>177</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>346</v>
@@ -15407,7 +15401,7 @@
         <v>181</v>
       </c>
       <c r="F60" s="16" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
@@ -15453,7 +15447,7 @@
         <v>333</v>
       </c>
       <c r="H62" s="16" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
       <c r="I62" s="18" t="s">
         <v>333</v>
@@ -15462,16 +15456,16 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
       <c r="B63" s="5" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>270</v>
@@ -15483,16 +15477,16 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="16" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="C64" s="16" t="s">
         <v>373</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="F64" s="16" t="s">
         <v>270</v>
@@ -15500,7 +15494,7 @@
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="18" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -15511,17 +15505,17 @@
         <v>281</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5" t="s">
         <v>226</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -15533,7 +15527,7 @@
       </c>
       <c r="E66" s="17"/>
       <c r="F66" s="16" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
       <c r="G66" s="16" t="s">
         <v>311</v>
@@ -15548,18 +15542,18 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="19" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="E67" s="19"/>
       <c r="F67" s="5" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="20" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -15570,13 +15564,13 @@
         <v>132</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>376</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="H68" s="16" t="s">
         <v>196</v>
@@ -15589,15 +15583,15 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>721</v>
+        <v>709</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19"/>
       <c r="F69" s="5" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="H69" s="5"/>
       <c r="I69" s="20"/>
@@ -15606,7 +15600,7 @@
       <c r="A70" s="16"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
@@ -15625,12 +15619,12 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
       <c r="F71" s="5" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
@@ -15643,16 +15637,16 @@
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
       <c r="D72" s="17" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F72" s="16" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="18" t="s">
@@ -15664,13 +15658,13 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="19" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
@@ -15684,7 +15678,7 @@
         <v>356</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16" t="s">
@@ -15705,7 +15699,7 @@
       <c r="E75" s="19"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
       <c r="H75" s="5" t="s">
         <v>254</v>
@@ -15735,11 +15729,11 @@
         <v>97</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="20" t="s">
@@ -15750,7 +15744,7 @@
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
@@ -15765,13 +15759,13 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="H79" s="16"/>
       <c r="I79" s="20"/>
@@ -15780,7 +15774,7 @@
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
@@ -15812,7 +15806,7 @@
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
       <c r="C82" s="17" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
@@ -15828,7 +15822,7 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="19" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="E83" s="19"/>
       <c r="F83" s="5"/>
@@ -15846,7 +15840,7 @@
         <v>361</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
       <c r="F84" s="16"/>
       <c r="G84" s="16" t="s">
@@ -15860,14 +15854,14 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="19" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="F85" s="5"/>
       <c r="G85" s="5" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="20"/>
@@ -15883,7 +15877,7 @@
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
       <c r="H86" s="16" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
       <c r="I86" s="18"/>
     </row>
@@ -15891,7 +15885,7 @@
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -15906,7 +15900,7 @@
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
       <c r="C88" s="16" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="17"/>
@@ -15921,7 +15915,7 @@
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
@@ -15936,7 +15930,7 @@
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
       <c r="C90" s="16" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
       <c r="D90" s="17"/>
       <c r="E90" s="17"/>
@@ -15946,7 +15940,7 @@
         <v>230</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -15960,7 +15954,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="I91" s="20"/>
     </row>
@@ -15976,7 +15970,7 @@
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
       <c r="I92" s="18" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -15985,7 +15979,7 @@
       <c r="C93" s="16"/>
       <c r="D93" s="19"/>
       <c r="E93" s="19" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
@@ -15996,7 +15990,7 @@
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="47" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
@@ -16070,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -16187,13 +16181,13 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
       <c r="I9" s="15"/>
     </row>
@@ -16218,7 +16212,7 @@
         <v>218</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="I10" s="18"/>
     </row>
@@ -16434,7 +16428,7 @@
         <v>53</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
@@ -16458,10 +16452,10 @@
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="I21" s="20"/>
     </row>
@@ -16655,7 +16649,7 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>219</v>
@@ -16680,7 +16674,7 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>270</v>
@@ -17180,7 +17174,7 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -17358,12 +17352,12 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
       <c r="F63" s="5" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -17388,12 +17382,12 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19"/>
       <c r="F65" s="5" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -17403,7 +17397,7 @@
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
       <c r="D66" s="17"/>
       <c r="E66" s="17"/>
@@ -17417,16 +17411,16 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
       <c r="B67" s="5" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>196</v>
@@ -17439,13 +17433,13 @@
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="F68" s="16" t="s">
         <v>218</v>
@@ -17458,7 +17452,7 @@
       <c r="A69" s="5"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="D69" s="19" t="s">
         <v>97</v>
@@ -17484,7 +17478,7 @@
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="I70" s="18"/>
     </row>
@@ -17492,7 +17486,7 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19"/>
@@ -17507,7 +17501,7 @@
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="D72" s="17"/>
       <c r="E72" s="17"/>
@@ -17522,7 +17516,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
@@ -17537,14 +17531,14 @@
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="D74" s="17"/>
       <c r="E74" s="17"/>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
       <c r="H74" s="16" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="I74" s="18"/>
     </row>
@@ -17552,14 +17546,14 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="I75" s="20"/>
     </row>
@@ -17567,7 +17561,7 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="D76" s="17"/>
       <c r="E76" s="17"/>
@@ -17727,7 +17721,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -17832,10 +17826,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
       <c r="H9" s="14"/>
       <c r="I9" s="15"/>
@@ -18291,7 +18285,7 @@
         <v>82</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -18315,7 +18309,7 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="18"/>
@@ -18379,7 +18373,7 @@
         <v>94</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>219</v>
@@ -18638,7 +18632,7 @@
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="H46" s="16"/>
       <c r="I46" s="18"/>
@@ -18660,10 +18654,10 @@
         <v>49</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="H47" s="5"/>
       <c r="I47" s="20"/>
@@ -18708,10 +18702,10 @@
         <v>141</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="20"/>
@@ -18757,7 +18751,7 @@
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="5" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="20"/>
@@ -18886,10 +18880,10 @@
         <v>170</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="20"/>
@@ -18933,7 +18927,7 @@
       </c>
       <c r="F59" s="5"/>
       <c r="G59" s="5" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="20"/>
@@ -19001,7 +18995,7 @@
         <v>97</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>212</v>
@@ -19015,10 +19009,10 @@
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
       <c r="D64" s="17" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="F64" s="16" t="s">
         <v>206</v>
@@ -19032,11 +19026,11 @@
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="19" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="E65" s="19"/>
       <c r="F65" s="5" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>219</v>
@@ -19049,13 +19043,13 @@
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
       <c r="D66" s="17" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
@@ -19069,10 +19063,10 @@
         <v>93</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
@@ -19083,13 +19077,13 @@
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
       <c r="D68" s="17" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
@@ -19100,13 +19094,13 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="19" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
@@ -19121,7 +19115,7 @@
       </c>
       <c r="E70" s="17"/>
       <c r="F70" s="16" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
@@ -19137,7 +19131,7 @@
       <c r="E71" s="19"/>
       <c r="F71" s="5"/>
       <c r="G71" s="5" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="20"/>
@@ -19152,7 +19146,7 @@
       <c r="E72" s="17"/>
       <c r="F72" s="16"/>
       <c r="G72" s="16" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="H72" s="16"/>
       <c r="I72" s="18"/>
@@ -19191,7 +19185,7 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19"/>
@@ -19221,7 +19215,7 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="D77" s="19"/>
       <c r="E77" s="19"/>
@@ -19236,7 +19230,7 @@
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
@@ -19251,7 +19245,7 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D79" s="19"/>
       <c r="E79" s="19"/>
@@ -19266,7 +19260,7 @@
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="D80" s="17"/>
       <c r="E80" s="17"/>
@@ -19299,14 +19293,14 @@
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
       <c r="D82" s="17" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>287</v>
       </c>
       <c r="F82" s="16"/>
       <c r="G82" s="16" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="H82" s="16"/>
       <c r="I82" s="18"/>
@@ -20673,7 +20667,7 @@
         <v>337</v>
       </c>
       <c r="E63" s="51" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="F63" s="55" t="s">
         <v>237</v>
@@ -20689,7 +20683,7 @@
         <v>234</v>
       </c>
       <c r="D64" s="51" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="E64" s="52" t="s">
         <v>282</v>
@@ -20705,13 +20699,13 @@
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="D65" s="56" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E65" s="56" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="F65" s="55" t="s">
         <v>219</v>
@@ -20736,7 +20730,7 @@
         <v>239</v>
       </c>
       <c r="G66" s="51" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="H66" s="51"/>
       <c r="I66" s="53"/>
@@ -20745,13 +20739,13 @@
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="5" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="D67" s="56" t="s">
         <v>198</v>
       </c>
       <c r="E67" s="56" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="F67" s="55" t="s">
         <v>240</v>
@@ -20769,10 +20763,10 @@
         <v>236</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="E68" s="52" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F68" s="51" t="s">
         <v>213</v>
@@ -20785,11 +20779,11 @@
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="D69" s="56"/>
       <c r="E69" s="56" t="s">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="F69" s="55" t="s">
         <v>252</v>
@@ -20838,7 +20832,7 @@
         <v>159</v>
       </c>
       <c r="E72" s="56" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="F72" s="51" t="s">
         <v>197</v>
@@ -20851,13 +20845,13 @@
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="D73" s="56" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E73" s="54" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="F73" s="55" t="s">
         <v>197</v>
@@ -20870,13 +20864,13 @@
       <c r="A74" s="51"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="D74" s="52" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E74" s="52" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="F74" s="51" t="s">
         <v>197</v>
@@ -20889,13 +20883,13 @@
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="D75" s="56" t="s">
         <v>139</v>
       </c>
       <c r="E75" s="56" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F75" s="55" t="s">
         <v>255</v>
@@ -20961,10 +20955,10 @@
         <v>249</v>
       </c>
       <c r="D79" s="56" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="E79" s="56" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F79" s="55" t="s">
         <v>217</v>
@@ -20977,11 +20971,11 @@
       <c r="A80" s="51"/>
       <c r="B80" s="51"/>
       <c r="C80" s="51" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D80" s="52"/>
       <c r="E80" s="52" t="s">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="F80" s="51" t="s">
         <v>229</v>
@@ -20997,10 +20991,10 @@
         <v>250</v>
       </c>
       <c r="D81" s="56" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="E81" s="56" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F81" s="55" t="s">
         <v>229</v>
@@ -21013,7 +21007,7 @@
       <c r="A82" s="51"/>
       <c r="B82" s="51"/>
       <c r="C82" s="51" t="s">
-        <v>815</v>
+        <v>803</v>
       </c>
       <c r="D82" s="52" t="s">
         <v>251</v>
@@ -22449,7 +22443,7 @@
         <v>337</v>
       </c>
       <c r="E64" s="52" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="F64" s="51" t="s">
         <v>256</v>
@@ -22466,7 +22460,7 @@
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55" t="s">
-        <v>816</v>
+        <v>804</v>
       </c>
       <c r="D65" s="56" t="s">
         <v>281</v>
@@ -22487,13 +22481,13 @@
       <c r="A66" s="51"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D66" s="52" t="s">
         <v>132</v>
       </c>
       <c r="E66" s="52" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="F66" s="51" t="s">
         <v>226</v>
@@ -22506,13 +22500,13 @@
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D67" s="56" t="s">
         <v>284</v>
       </c>
       <c r="E67" s="56" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F67" s="55" t="s">
         <v>227</v>
@@ -22559,13 +22553,13 @@
       <c r="A70" s="51"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
       <c r="D70" s="52" t="s">
         <v>324</v>
       </c>
       <c r="E70" s="52" t="s">
-        <v>817</v>
+        <v>805</v>
       </c>
       <c r="F70" s="51"/>
       <c r="G70" s="51" t="s">
@@ -22578,7 +22572,7 @@
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
@@ -22608,7 +22602,7 @@
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="51" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="D73" s="52"/>
       <c r="E73" s="52" t="s">
@@ -22623,7 +22617,7 @@
       <c r="A74" s="51"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D74" s="56"/>
       <c r="E74" s="56" t="s">
@@ -24158,13 +24152,13 @@
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16" t="s">
-        <v>822</v>
+        <v>810</v>
       </c>
       <c r="D64" s="17" t="s">
         <v>52</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>821</v>
+        <v>809</v>
       </c>
       <c r="F64" s="16" t="s">
         <v>317</v>
@@ -24181,13 +24175,13 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="D65" s="19" t="s">
         <v>93</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>823</v>
+        <v>811</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>320</v>
@@ -24204,7 +24198,7 @@
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>136</v>
@@ -24229,13 +24223,13 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>324</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>825</v>
+        <v>813</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>325</v>
@@ -24302,13 +24296,13 @@
       <c r="A71" s="5"/>
       <c r="B71" s="5"/>
       <c r="C71" s="5" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="D71" s="19" t="s">
         <v>330</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
@@ -24327,7 +24321,7 @@
         <v>332</v>
       </c>
       <c r="E72" s="17" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
@@ -24340,7 +24334,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="5" t="s">
-        <v>826</v>
+        <v>814</v>
       </c>
       <c r="D73" s="19" t="s">
         <v>93</v>
@@ -24359,13 +24353,13 @@
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="D74" s="17" t="s">
         <v>93</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>827</v>
+        <v>815</v>
       </c>
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
@@ -24378,13 +24372,13 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>337</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
@@ -24397,7 +24391,7 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="D76" s="17" t="s">
         <v>328</v>
@@ -24416,7 +24410,7 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D77" s="19" t="s">
         <v>338</v>
@@ -24435,13 +24429,13 @@
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16" t="s">
-        <v>830</v>
+        <v>818</v>
       </c>
       <c r="D78" s="17" t="s">
         <v>340</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
@@ -24454,10 +24448,10 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>831</v>
+        <v>819</v>
       </c>
       <c r="E79" s="19"/>
       <c r="F79" s="5"/>
@@ -24471,13 +24465,13 @@
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>832</v>
+        <v>820</v>
       </c>
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
@@ -24490,13 +24484,13 @@
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D81" s="19" t="s">
         <v>180</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="5"/>
@@ -25855,13 +25849,13 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>833</v>
+        <v>821</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>834</v>
+        <v>822</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>835</v>
+        <v>823</v>
       </c>
       <c r="F63" s="16" t="s">
         <v>270</v>
@@ -25877,10 +25871,10 @@
         <v>354</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="E64" s="17" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>270</v>
@@ -25893,13 +25887,13 @@
       <c r="A65" s="5"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5" t="s">
-        <v>836</v>
+        <v>824</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>837</v>
+        <v>825</v>
       </c>
       <c r="F65" s="16" t="s">
         <v>357</v>
@@ -25912,13 +25906,13 @@
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>355</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>351</v>
@@ -25931,13 +25925,13 @@
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="5" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>356</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F67" s="16" t="s">
         <v>352</v>
@@ -25950,13 +25944,13 @@
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16" t="s">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>97</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>353</v>
@@ -25972,10 +25966,10 @@
         <v>359</v>
       </c>
       <c r="D69" s="19" t="s">
-        <v>839</v>
+        <v>827</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>840</v>
+        <v>828</v>
       </c>
       <c r="F69" s="16" t="s">
         <v>346</v>
@@ -25994,7 +25988,7 @@
         <v>337</v>
       </c>
       <c r="E70" s="17" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="F70" s="16" t="s">
         <v>360</v>
@@ -26010,10 +26004,10 @@
         <v>361</v>
       </c>
       <c r="D71" s="19" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>362</v>
@@ -26048,10 +26042,10 @@
         <v>365</v>
       </c>
       <c r="D73" s="19" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>363</v>
@@ -26079,13 +26073,13 @@
       <c r="A75" s="5"/>
       <c r="B75" s="5"/>
       <c r="C75" s="5" t="s">
-        <v>841</v>
+        <v>829</v>
       </c>
       <c r="D75" s="19" t="s">
         <v>281</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>291</v>
@@ -26098,13 +26092,13 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
-        <v>842</v>
+        <v>830</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>843</v>
+        <v>831</v>
       </c>
       <c r="E76" s="17" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="F76" s="16" t="s">
         <v>369</v>
@@ -26120,10 +26114,10 @@
         <v>367</v>
       </c>
       <c r="D77" s="19" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>369</v>
@@ -26139,10 +26133,10 @@
         <v>368</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
       <c r="E78" s="17" t="s">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="F78" s="16" t="s">
         <v>256</v>
@@ -26155,13 +26149,13 @@
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5" t="s">
-        <v>846</v>
+        <v>834</v>
       </c>
       <c r="D79" s="19" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="E79" s="62" t="s">
-        <v>845</v>
+        <v>833</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>230</v>
@@ -26174,13 +26168,13 @@
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="D80" s="17" t="s">
         <v>203</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F80" s="16" t="s">
         <v>218</v>
@@ -27565,10 +27559,10 @@
         <v>373</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>847</v>
+        <v>835</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>215</v>
@@ -27817,8 +27811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A4281A-6B16-8441-9BC2-3CF8DB851905}">
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" zoomScale="140" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27832,7 +27826,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -27847,7 +27841,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -27862,7 +27856,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -27931,7 +27925,7 @@
       <c r="E7" s="43"/>
       <c r="F7" s="44"/>
       <c r="G7" s="49" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="36"/>
@@ -27969,7 +27963,7 @@
         <v>374</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>13</v>
@@ -28882,7 +28876,7 @@
       </c>
       <c r="F52" s="16"/>
       <c r="G52" s="16" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="H52" s="16"/>
       <c r="I52" s="18"/>
@@ -29086,7 +29080,7 @@
       <c r="E62" s="17"/>
       <c r="F62" s="16"/>
       <c r="G62" s="16" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="H62" s="16"/>
       <c r="I62" s="18"/>
@@ -29095,12 +29089,16 @@
       <c r="A63" s="55"/>
       <c r="B63" s="55"/>
       <c r="C63" s="55" t="s">
+        <v>836</v>
+      </c>
+      <c r="D63" s="56" t="s">
+        <v>527</v>
+      </c>
+      <c r="E63" s="56" t="s">
+        <v>526</v>
+      </c>
+      <c r="F63" s="55" t="s">
         <v>379</v>
-      </c>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="55" t="s">
-        <v>380</v>
       </c>
       <c r="G63" s="55"/>
       <c r="H63" s="55"/>
@@ -29110,15 +29108,19 @@
       <c r="A64" s="51"/>
       <c r="B64" s="51"/>
       <c r="C64" s="51" t="s">
-        <v>381</v>
-      </c>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
+        <v>818</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>837</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>524</v>
+      </c>
       <c r="F64" s="51" t="s">
         <v>217</v>
       </c>
       <c r="G64" s="51" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="H64" s="51"/>
       <c r="I64" s="53"/>
@@ -29127,10 +29129,14 @@
       <c r="A65" s="55"/>
       <c r="B65" s="55"/>
       <c r="C65" s="55" t="s">
-        <v>382</v>
-      </c>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
+        <v>380</v>
+      </c>
+      <c r="D65" s="56" t="s">
+        <v>587</v>
+      </c>
+      <c r="E65" s="56" t="s">
+        <v>587</v>
+      </c>
       <c r="F65" s="55" t="s">
         <v>230</v>
       </c>
@@ -29142,10 +29148,14 @@
       <c r="A66" s="51"/>
       <c r="B66" s="51"/>
       <c r="C66" s="51" t="s">
-        <v>383</v>
-      </c>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
+        <v>598</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="E66" s="52" t="s">
+        <v>519</v>
+      </c>
       <c r="F66" s="51" t="s">
         <v>196</v>
       </c>
@@ -29157,10 +29167,14 @@
       <c r="A67" s="55"/>
       <c r="B67" s="55"/>
       <c r="C67" s="55" t="s">
-        <v>384</v>
-      </c>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
+        <v>838</v>
+      </c>
+      <c r="D67" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="56" t="s">
+        <v>76</v>
+      </c>
       <c r="F67" s="55" t="s">
         <v>211</v>
       </c>
@@ -29172,10 +29186,14 @@
       <c r="A68" s="51"/>
       <c r="B68" s="51"/>
       <c r="C68" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
+        <v>839</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>840</v>
+      </c>
+      <c r="E68" s="52" t="s">
+        <v>287</v>
+      </c>
       <c r="F68" s="51" t="s">
         <v>217</v>
       </c>
@@ -29187,10 +29205,14 @@
       <c r="A69" s="55"/>
       <c r="B69" s="55"/>
       <c r="C69" s="55" t="s">
-        <v>386</v>
-      </c>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
+        <v>381</v>
+      </c>
+      <c r="D69" s="56" t="s">
+        <v>587</v>
+      </c>
+      <c r="E69" s="56" t="s">
+        <v>587</v>
+      </c>
       <c r="F69" s="55" t="s">
         <v>226</v>
       </c>
@@ -29202,10 +29224,14 @@
       <c r="A70" s="51"/>
       <c r="B70" s="51"/>
       <c r="C70" s="51" t="s">
-        <v>387</v>
-      </c>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
+        <v>382</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>841</v>
+      </c>
+      <c r="E70" s="52" t="s">
+        <v>536</v>
+      </c>
       <c r="F70" s="51" t="s">
         <v>256</v>
       </c>
@@ -29217,7 +29243,7 @@
       <c r="A71" s="55"/>
       <c r="B71" s="55"/>
       <c r="C71" s="55" t="s">
-        <v>388</v>
+        <v>842</v>
       </c>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
@@ -29232,7 +29258,7 @@
       <c r="A72" s="51"/>
       <c r="B72" s="51"/>
       <c r="C72" s="51" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D72" s="52"/>
       <c r="E72" s="52"/>
@@ -29249,7 +29275,7 @@
       <c r="A73" s="55"/>
       <c r="B73" s="55"/>
       <c r="C73" s="55" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="D73" s="56"/>
       <c r="E73" s="56"/>
@@ -29264,10 +29290,14 @@
       <c r="A74" s="51"/>
       <c r="B74" s="51"/>
       <c r="C74" s="51" t="s">
-        <v>394</v>
-      </c>
-      <c r="D74" s="52"/>
-      <c r="E74" s="52"/>
+        <v>843</v>
+      </c>
+      <c r="D74" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="52" t="s">
+        <v>389</v>
+      </c>
       <c r="F74" s="51"/>
       <c r="G74" s="51" t="s">
         <v>302</v>
@@ -29279,10 +29309,14 @@
       <c r="A75" s="55"/>
       <c r="B75" s="55"/>
       <c r="C75" s="55" t="s">
-        <v>395</v>
-      </c>
-      <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
+        <v>844</v>
+      </c>
+      <c r="D75" s="56" t="s">
+        <v>523</v>
+      </c>
+      <c r="E75" s="56" t="s">
+        <v>160</v>
+      </c>
       <c r="F75" s="55"/>
       <c r="G75" s="55" t="s">
         <v>270</v>
@@ -29294,10 +29328,14 @@
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
+        <v>587</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>587</v>
+      </c>
       <c r="F76" s="16"/>
       <c r="G76" s="16" t="s">
         <v>266</v>
@@ -29309,10 +29347,14 @@
       <c r="A77" s="5"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
+        <v>845</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="19" t="s">
+        <v>31</v>
+      </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5" t="s">
         <v>219</v>
@@ -29324,227 +29366,201 @@
       <c r="A78" s="16"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="16"/>
-      <c r="G78" s="16" t="s">
-        <v>392</v>
-      </c>
+      <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="18"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
-      <c r="C79" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D79" s="19"/>
+      <c r="C79" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="D79" s="17"/>
       <c r="E79" s="19"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="5" t="s">
-        <v>416</v>
-      </c>
+      <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="20"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="16"/>
       <c r="B80" s="16"/>
-      <c r="C80" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="D80" s="17"/>
+      <c r="C80" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D80" s="19"/>
       <c r="E80" s="17"/>
       <c r="F80" s="16"/>
-      <c r="G80" s="16" t="s">
-        <v>415</v>
-      </c>
+      <c r="G80" s="16"/>
       <c r="H80" s="16"/>
       <c r="I80" s="18"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
-      <c r="C81" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D81" s="19"/>
+      <c r="C81" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="D81" s="17"/>
       <c r="E81" s="19"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="5" t="s">
-        <v>215</v>
-      </c>
+      <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="20"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="16"/>
       <c r="B82" s="16"/>
-      <c r="C82" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="D82" s="17"/>
+      <c r="C82" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D82" s="19"/>
       <c r="E82" s="17"/>
       <c r="F82" s="16"/>
-      <c r="G82" s="16" t="s">
-        <v>217</v>
-      </c>
+      <c r="G82" s="16"/>
       <c r="H82" s="16"/>
       <c r="I82" s="18"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="5"/>
-      <c r="C83" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D83" s="19"/>
+      <c r="C83" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D83" s="17"/>
       <c r="E83" s="19"/>
       <c r="F83" s="5"/>
-      <c r="G83" s="5" t="s">
-        <v>217</v>
-      </c>
+      <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="20"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="16"/>
       <c r="B84" s="16"/>
-      <c r="C84" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="D84" s="17"/>
+      <c r="C84" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D84" s="19"/>
       <c r="E84" s="17"/>
       <c r="F84" s="16"/>
-      <c r="G84" s="16" t="s">
-        <v>211</v>
-      </c>
+      <c r="G84" s="16"/>
       <c r="H84" s="16"/>
       <c r="I84" s="18"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
-      <c r="C85" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>104</v>
-      </c>
+      <c r="C85" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="D85" s="17"/>
       <c r="E85" s="19"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="5" t="s">
-        <v>424</v>
-      </c>
+      <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="20"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="16"/>
       <c r="B86" s="16"/>
-      <c r="C86" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>418</v>
+      <c r="C86" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="16"/>
-      <c r="G86" s="16" t="s">
-        <v>425</v>
-      </c>
+      <c r="G86" s="16"/>
       <c r="H86" s="16"/>
       <c r="I86" s="18"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="5"/>
-      <c r="C87" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>420</v>
+      <c r="C87" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>407</v>
       </c>
       <c r="E87" s="19"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="5" t="s">
-        <v>273</v>
-      </c>
+      <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="20"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="16"/>
       <c r="B88" s="16"/>
-      <c r="C88" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="D88" s="17"/>
+      <c r="C88" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D88" s="19" t="s">
+        <v>409</v>
+      </c>
       <c r="E88" s="17"/>
       <c r="F88" s="16"/>
-      <c r="G88" s="16" t="s">
-        <v>270</v>
-      </c>
+      <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="I88" s="18"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="5"/>
-      <c r="C89" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D89" s="19"/>
+      <c r="C89" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="D89" s="17"/>
       <c r="E89" s="19"/>
       <c r="F89" s="5"/>
-      <c r="G89" s="5" t="s">
-        <v>392</v>
-      </c>
+      <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="20"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="16"/>
       <c r="B90" s="16"/>
-      <c r="C90" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>423</v>
-      </c>
+      <c r="C90" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D90" s="19"/>
       <c r="E90" s="17"/>
       <c r="F90" s="16"/>
-      <c r="G90" s="16" t="s">
-        <v>240</v>
-      </c>
+      <c r="G90" s="16"/>
       <c r="H90" s="16"/>
       <c r="I90" s="18"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="5"/>
-      <c r="C91" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D91" s="19" t="s">
-        <v>287</v>
+      <c r="C91" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>412</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="5"/>
-      <c r="G91" s="5" t="s">
-        <v>426</v>
-      </c>
+      <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="20"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="16"/>
       <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="17"/>
+      <c r="C92" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D92" s="19" t="s">
+        <v>287</v>
+      </c>
       <c r="E92" s="17"/>
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
@@ -29756,10 +29772,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>13</v>
@@ -30022,10 +30038,10 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="20"/>
@@ -30218,7 +30234,7 @@
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="H30" s="5"/>
       <c r="I30" s="20"/>
@@ -30241,7 +30257,7 @@
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="18"/>
@@ -30305,7 +30321,7 @@
         <v>94</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="G34" s="24" t="s">
         <v>205</v>
@@ -30418,7 +30434,7 @@
         <v>109</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
@@ -30741,7 +30757,7 @@
         <v>160</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
@@ -30909,7 +30925,7 @@
       <c r="D62" s="17"/>
       <c r="E62" s="17"/>
       <c r="F62" s="16" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>270</v>
@@ -30921,10 +30937,10 @@
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E63" s="17"/>
       <c r="F63" s="5" t="s">
@@ -30938,17 +30954,17 @@
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="E64" s="19"/>
       <c r="F64" s="16" t="s">
         <v>207</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="H64" s="5"/>
       <c r="I64" s="20"/>
@@ -30957,10 +30973,10 @@
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="E65" s="17"/>
       <c r="F65" s="5" t="s">
@@ -30979,11 +30995,11 @@
         <v>286</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="E66" s="19"/>
       <c r="F66" s="16" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -30993,16 +31009,16 @@
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D67" s="17" t="s">
         <v>53</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
@@ -31012,10 +31028,10 @@
       <c r="A68" s="5"/>
       <c r="B68" s="5"/>
       <c r="C68" s="5" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="E68" s="19"/>
       <c r="F68" s="5" t="s">
@@ -31029,7 +31045,7 @@
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D69" s="17" t="s">
         <v>53</v>
@@ -31046,10 +31062,10 @@
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="5" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="D70" s="19" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="E70" s="19"/>
       <c r="F70" s="5" t="s">
@@ -31063,10 +31079,10 @@
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="E71" s="17"/>
       <c r="F71" s="16" t="s">
@@ -31080,10 +31096,10 @@
       <c r="A72" s="5"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D72" s="19" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E72" s="19"/>
       <c r="F72" s="5" t="s">
@@ -31127,7 +31143,7 @@
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D75" s="17"/>
       <c r="E75" s="17"/>
@@ -31157,10 +31173,10 @@
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E77" s="17"/>
       <c r="F77" s="16" t="s">
@@ -31398,16 +31414,16 @@
         <v>12</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -31431,10 +31447,10 @@
         <v>273</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -31523,10 +31539,10 @@
         <v>196</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -31676,7 +31692,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -31701,7 +31717,7 @@
         <v>57</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
@@ -31792,13 +31808,13 @@
         <v>196</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -31886,13 +31902,13 @@
         <v>305</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>375</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -31937,7 +31953,7 @@
         <v>212</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="I32" s="20" t="s">
         <v>215</v>
@@ -31957,7 +31973,7 @@
         <v>86</v>
       </c>
       <c r="E33" s="56" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
@@ -32045,7 +32061,7 @@
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="H37" s="16"/>
       <c r="I37" s="18" t="s">
@@ -32269,10 +32285,10 @@
         <v>227</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="I47" s="20" t="s">
         <v>346</v>
@@ -32500,10 +32516,10 @@
         <v>270</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -32613,7 +32629,7 @@
       <c r="A63" s="5"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D63" s="19"/>
       <c r="E63" s="19"/>
@@ -32628,12 +32644,12 @@
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D64" s="17"/>
       <c r="E64" s="17"/>
       <c r="F64" s="16" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
@@ -32647,7 +32663,7 @@
         <v>285</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>254</v>
@@ -32664,7 +32680,7 @@
         <v>285</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="F66" s="16" t="s">
         <v>215</v>
@@ -32681,7 +32697,7 @@
         <v>286</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5" t="s">
@@ -32703,10 +32719,10 @@
         <v>270</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
